--- a/Code/Results/Cases/Case_0_156/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_156/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01344450914393036</v>
+        <v>0.003254057381738562</v>
       </c>
       <c r="D2">
-        <v>0.1254286652801255</v>
+        <v>0.03349782192563566</v>
       </c>
       <c r="E2">
-        <v>1.693217759814686</v>
+        <v>0.4333214853876086</v>
       </c>
       <c r="F2">
-        <v>4.348100523675527</v>
+        <v>1.479172793580574</v>
       </c>
       <c r="G2">
-        <v>5.101538936911822</v>
+        <v>1.560190433613002</v>
       </c>
       <c r="H2">
-        <v>2.431071999011465</v>
+        <v>1.022540459300615</v>
       </c>
       <c r="I2">
-        <v>3.371152751250051</v>
+        <v>1.1362179686612</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01123029046443946</v>
+        <v>0.002821308720768911</v>
       </c>
       <c r="D3">
-        <v>0.1057552671966988</v>
+        <v>0.02934618752100704</v>
       </c>
       <c r="E3">
-        <v>1.424824778722225</v>
+        <v>0.3770546871430156</v>
       </c>
       <c r="F3">
-        <v>3.699289516883567</v>
+        <v>1.338957110356432</v>
       </c>
       <c r="G3">
-        <v>4.333300474691839</v>
+        <v>1.390408734690794</v>
       </c>
       <c r="H3">
-        <v>2.074839541658179</v>
+        <v>0.9498434618274416</v>
       </c>
       <c r="I3">
-        <v>2.86731387061171</v>
+        <v>1.027328598235428</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.009954469254765286</v>
+        <v>0.002556772847700728</v>
       </c>
       <c r="D4">
-        <v>0.09425576729506702</v>
+        <v>0.02681457152093714</v>
       </c>
       <c r="E4">
-        <v>1.268390838363032</v>
+        <v>0.3427093422305205</v>
       </c>
       <c r="F4">
-        <v>3.316475252101327</v>
+        <v>1.25385654906384</v>
       </c>
       <c r="G4">
-        <v>3.879922528112985</v>
+        <v>1.287088664196489</v>
       </c>
       <c r="H4">
-        <v>1.865111599200958</v>
+        <v>0.9059721192086272</v>
       </c>
       <c r="I4">
-        <v>2.57009604837495</v>
+        <v>0.9612294625744511</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.009451301082854968</v>
+        <v>0.002449222314204746</v>
       </c>
       <c r="D5">
-        <v>0.0896872801889117</v>
+        <v>0.02578698926784995</v>
       </c>
       <c r="E5">
-        <v>1.206328173410441</v>
+        <v>0.3287593870395824</v>
       </c>
       <c r="F5">
-        <v>3.163683450695345</v>
+        <v>1.219418417453852</v>
       </c>
       <c r="G5">
-        <v>3.698931776873337</v>
+        <v>1.245207559488222</v>
       </c>
       <c r="H5">
-        <v>1.781510220856745</v>
+        <v>0.8882818619924819</v>
       </c>
       <c r="I5">
-        <v>2.45147968198475</v>
+        <v>0.9344778148814612</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.009368651490472502</v>
+        <v>0.002431377428983694</v>
       </c>
       <c r="D6">
-        <v>0.08893506493544123</v>
+        <v>0.02561659642820757</v>
       </c>
       <c r="E6">
-        <v>1.196113824896841</v>
+        <v>0.32644564704799</v>
       </c>
       <c r="F6">
-        <v>3.138487890714089</v>
+        <v>1.213714304211692</v>
       </c>
       <c r="G6">
-        <v>3.669083794278123</v>
+        <v>1.23826638392859</v>
       </c>
       <c r="H6">
-        <v>1.767730494983624</v>
+        <v>0.885355608407167</v>
       </c>
       <c r="I6">
-        <v>2.431920302332941</v>
+        <v>0.930046662266534</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.009947620647505317</v>
+        <v>0.002555321430154578</v>
       </c>
       <c r="D7">
-        <v>0.09419371221238038</v>
+        <v>0.02680069713186128</v>
       </c>
       <c r="E7">
-        <v>1.267547507920995</v>
+        <v>0.3425210282276652</v>
       </c>
       <c r="F7">
-        <v>3.314402503187551</v>
+        <v>1.25339113956133</v>
       </c>
       <c r="G7">
-        <v>3.877467391839303</v>
+        <v>1.286522952935513</v>
       </c>
       <c r="H7">
-        <v>1.863977050457692</v>
+        <v>0.9057327884428616</v>
       </c>
       <c r="I7">
-        <v>2.568486875002094</v>
+        <v>0.9608679430434961</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01266077504013907</v>
+        <v>0.003104574512214242</v>
       </c>
       <c r="D8">
-        <v>0.1185061164367482</v>
+        <v>0.03206250382659448</v>
       </c>
       <c r="E8">
-        <v>1.598661873572738</v>
+        <v>0.4138756201795957</v>
       </c>
       <c r="F8">
-        <v>4.120696658236369</v>
+        <v>1.430615228876633</v>
       </c>
       <c r="G8">
-        <v>4.832290491767367</v>
+        <v>1.50145106635506</v>
       </c>
       <c r="H8">
-        <v>2.306111781906054</v>
+        <v>0.997312915528255</v>
       </c>
       <c r="I8">
-        <v>3.194545657294583</v>
+        <v>1.098511222843172</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01890404081590091</v>
+        <v>0.004193089834402031</v>
       </c>
       <c r="D9">
-        <v>0.1724351600641683</v>
+        <v>0.04253537497446302</v>
       </c>
       <c r="E9">
-        <v>2.339041732980675</v>
+        <v>0.5556417919495686</v>
       </c>
       <c r="F9">
-        <v>5.865531242081943</v>
+        <v>1.786433726092952</v>
       </c>
       <c r="G9">
-        <v>6.898352549842173</v>
+        <v>1.930770471932931</v>
       </c>
       <c r="H9">
-        <v>3.267369944927964</v>
+        <v>1.183194529484183</v>
       </c>
       <c r="I9">
-        <v>4.550075726719029</v>
+        <v>1.374773752377479</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02457415429232768</v>
+        <v>0.005002855156178043</v>
       </c>
       <c r="D10">
-        <v>0.2190894863236679</v>
+        <v>0.05034663962426578</v>
       </c>
       <c r="E10">
-        <v>2.987780375960668</v>
+        <v>0.6612548373531837</v>
       </c>
       <c r="F10">
-        <v>7.323433708549715</v>
+        <v>2.053503134825348</v>
       </c>
       <c r="G10">
-        <v>8.625905861440742</v>
+        <v>2.25169995454138</v>
       </c>
       <c r="H10">
-        <v>4.074327958866775</v>
+        <v>1.323928293468384</v>
       </c>
       <c r="I10">
-        <v>5.683575033474369</v>
+        <v>1.582080857590341</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02758447439131828</v>
+        <v>0.005374107612826862</v>
       </c>
       <c r="D11">
-        <v>0.2430042267572077</v>
+        <v>0.05393065389280594</v>
       </c>
       <c r="E11">
-        <v>3.323983532946443</v>
+        <v>0.7096928564080969</v>
       </c>
       <c r="F11">
-        <v>8.051302092687479</v>
+        <v>2.176361795961952</v>
       </c>
       <c r="G11">
-        <v>9.48917769713745</v>
+        <v>2.399058331659944</v>
       </c>
       <c r="H11">
-        <v>4.478348990258496</v>
+        <v>1.388930860006212</v>
       </c>
       <c r="I11">
-        <v>6.249823015249547</v>
+        <v>1.677437594168651</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02881357053155398</v>
+        <v>0.005515163530720457</v>
       </c>
       <c r="D12">
-        <v>0.2526037403097092</v>
+        <v>0.05529264728673411</v>
       </c>
       <c r="E12">
-        <v>3.459737941176343</v>
+        <v>0.7280979333847029</v>
       </c>
       <c r="F12">
-        <v>8.339661184291458</v>
+        <v>2.223092649497147</v>
       </c>
       <c r="G12">
-        <v>9.831358644522481</v>
+        <v>2.455068630089329</v>
       </c>
       <c r="H12">
-        <v>4.638612554044244</v>
+        <v>1.413692841925524</v>
       </c>
       <c r="I12">
-        <v>6.474220800674459</v>
+        <v>1.713706417683738</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02854430894560167</v>
+        <v>0.005484762777026475</v>
       </c>
       <c r="D13">
-        <v>0.2505088094290073</v>
+        <v>0.05499909744283116</v>
       </c>
       <c r="E13">
-        <v>3.430070558411714</v>
+        <v>0.7241311873571874</v>
       </c>
       <c r="F13">
-        <v>8.276919964998285</v>
+        <v>2.213018952958919</v>
       </c>
       <c r="G13">
-        <v>9.756897547954452</v>
+        <v>2.442996318239921</v>
       </c>
       <c r="H13">
-        <v>4.603732650145389</v>
+        <v>1.408353279212236</v>
       </c>
       <c r="I13">
-        <v>6.425392919624187</v>
+        <v>1.705888062043613</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02768359986342972</v>
+        <v>0.005385702609842724</v>
       </c>
       <c r="D14">
-        <v>0.2437819227635316</v>
+        <v>0.05404260727604537</v>
       </c>
       <c r="E14">
-        <v>3.334963746942009</v>
+        <v>0.7112057626939219</v>
       </c>
       <c r="F14">
-        <v>8.074745212037669</v>
+        <v>2.180202163862305</v>
       </c>
       <c r="G14">
-        <v>9.516992421592192</v>
+        <v>2.403662073796909</v>
       </c>
       <c r="H14">
-        <v>4.491373880327785</v>
+        <v>1.390965065424609</v>
       </c>
       <c r="I14">
-        <v>6.268064715396292</v>
+        <v>1.680418212570913</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02716904330425862</v>
+        <v>0.005325088373179909</v>
       </c>
       <c r="D15">
-        <v>0.2397382078953285</v>
+        <v>0.05345736725728045</v>
       </c>
       <c r="E15">
-        <v>3.277904452826817</v>
+        <v>0.7032969061931595</v>
       </c>
       <c r="F15">
-        <v>7.952693072074794</v>
+        <v>2.160128194102469</v>
       </c>
       <c r="G15">
-        <v>9.372187922502746</v>
+        <v>2.379596291095424</v>
       </c>
       <c r="H15">
-        <v>4.423570570468712</v>
+        <v>1.38033358776039</v>
       </c>
       <c r="I15">
-        <v>6.173095588598187</v>
+        <v>1.664838182651778</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02438812888053121</v>
+        <v>0.004978655728585579</v>
       </c>
       <c r="D16">
-        <v>0.2175925717773879</v>
+        <v>0.05011306619309153</v>
       </c>
       <c r="E16">
-        <v>2.966825204239953</v>
+        <v>0.6580977365154581</v>
       </c>
       <c r="F16">
-        <v>7.277428396370311</v>
+        <v>2.045502423609747</v>
       </c>
       <c r="G16">
-        <v>8.571362234402955</v>
+        <v>2.242098281615256</v>
       </c>
       <c r="H16">
-        <v>4.048816500114924</v>
+        <v>1.319700468231076</v>
       </c>
       <c r="I16">
-        <v>5.647792979421752</v>
+        <v>1.575870917717282</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02280809076771817</v>
+        <v>0.004766908780645451</v>
       </c>
       <c r="D17">
-        <v>0.2047872617698374</v>
+        <v>0.04806957234971776</v>
       </c>
       <c r="E17">
-        <v>2.787966074237332</v>
+        <v>0.6304746509790249</v>
       </c>
       <c r="F17">
-        <v>6.881761910535118</v>
+        <v>1.975540707466763</v>
       </c>
       <c r="G17">
-        <v>8.102350197685496</v>
+        <v>2.158106315897214</v>
       </c>
       <c r="H17">
-        <v>3.829530733515583</v>
+        <v>1.282759550197568</v>
       </c>
       <c r="I17">
-        <v>5.340088756731376</v>
+        <v>1.521567415056438</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02193769509081278</v>
+        <v>0.004645385760881027</v>
       </c>
       <c r="D18">
-        <v>0.1976630057654774</v>
+        <v>0.04689706723206655</v>
       </c>
       <c r="E18">
-        <v>2.688757287295346</v>
+        <v>0.6146233109359969</v>
       </c>
       <c r="F18">
-        <v>6.660004570826771</v>
+        <v>1.935428655982946</v>
       </c>
       <c r="G18">
-        <v>7.83954947312418</v>
+        <v>2.109924162734671</v>
       </c>
       <c r="H18">
-        <v>3.706727278736764</v>
+        <v>1.261604197832753</v>
       </c>
       <c r="I18">
-        <v>5.167660082862824</v>
+        <v>1.490431971508826</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02164895713485038</v>
+        <v>0.004604284556375404</v>
       </c>
       <c r="D19">
-        <v>0.1952885450995865</v>
+        <v>0.04650055608500736</v>
       </c>
       <c r="E19">
-        <v>2.655737564076304</v>
+        <v>0.6092624483873266</v>
       </c>
       <c r="F19">
-        <v>6.585838035291459</v>
+        <v>1.921869092488407</v>
       </c>
       <c r="G19">
-        <v>7.751665541672594</v>
+        <v>2.093632089949608</v>
       </c>
       <c r="H19">
-        <v>3.665671816840643</v>
+        <v>1.254457003917366</v>
       </c>
       <c r="I19">
-        <v>5.109996001716723</v>
+        <v>1.479906719779933</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02297215757343807</v>
+        <v>0.004789421446250941</v>
       </c>
       <c r="D20">
-        <v>0.206124548611001</v>
+        <v>0.04828680705054467</v>
       </c>
       <c r="E20">
-        <v>2.806611874208414</v>
+        <v>0.6334113316135301</v>
       </c>
       <c r="F20">
-        <v>6.92325857002632</v>
+        <v>1.98297492231211</v>
       </c>
       <c r="G20">
-        <v>8.15153209019411</v>
+        <v>2.167034087632203</v>
       </c>
       <c r="H20">
-        <v>3.852518429037218</v>
+        <v>1.286682402595602</v>
       </c>
       <c r="I20">
-        <v>5.372356996794792</v>
+        <v>1.527337864055909</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02793370429822062</v>
+        <v>0.005414785755259999</v>
       </c>
       <c r="D21">
-        <v>0.245741394504833</v>
+        <v>0.05432341797123286</v>
       </c>
       <c r="E21">
-        <v>3.362643092768295</v>
+        <v>0.7150005244285893</v>
       </c>
       <c r="F21">
-        <v>8.133748233021947</v>
+        <v>2.189835550321789</v>
       </c>
       <c r="G21">
-        <v>9.587001257993904</v>
+        <v>2.415209724981651</v>
       </c>
       <c r="H21">
-        <v>4.52415904085899</v>
+        <v>1.396068371685772</v>
       </c>
       <c r="I21">
-        <v>6.313977642729867</v>
+        <v>1.687894936110695</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03172098125031653</v>
+        <v>0.005826268009457181</v>
       </c>
       <c r="D22">
-        <v>0.2749400698695297</v>
+        <v>0.05829689329300436</v>
       </c>
       <c r="E22">
-        <v>3.777569727975845</v>
+        <v>0.7686918527812168</v>
       </c>
       <c r="F22">
-        <v>9.002007544875909</v>
+        <v>2.326242151678684</v>
       </c>
       <c r="G22">
-        <v>10.61776754447601</v>
+        <v>2.578630384526036</v>
       </c>
       <c r="H22">
-        <v>5.007161874707492</v>
+        <v>1.468417554920734</v>
       </c>
       <c r="I22">
-        <v>6.9898049671622</v>
+        <v>1.793760671793962</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02963658427320581</v>
+        <v>0.005606379835924713</v>
       </c>
       <c r="D23">
-        <v>0.2589791695749426</v>
+        <v>0.056173459059778</v>
       </c>
       <c r="E23">
-        <v>3.550169455393046</v>
+        <v>0.740000080994875</v>
       </c>
       <c r="F23">
-        <v>8.529949159981072</v>
+        <v>2.253325073928437</v>
       </c>
       <c r="G23">
-        <v>10.05722464577821</v>
+        <v>2.49129354428328</v>
       </c>
       <c r="H23">
-        <v>4.74443292178438</v>
+        <v>1.429722897787428</v>
       </c>
       <c r="I23">
-        <v>6.622322638952511</v>
+        <v>1.737170097874895</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02289786647425984</v>
+        <v>0.004779242810620588</v>
       </c>
       <c r="D24">
-        <v>0.2055192315215066</v>
+        <v>0.04818858802501325</v>
       </c>
       <c r="E24">
-        <v>2.798171004204505</v>
+        <v>0.6320835667388707</v>
       </c>
       <c r="F24">
-        <v>6.90448035972554</v>
+        <v>1.979613572332795</v>
       </c>
       <c r="G24">
-        <v>8.129275934081022</v>
+        <v>2.162997512968275</v>
       </c>
       <c r="H24">
-        <v>3.842115650604455</v>
+        <v>1.284908624568857</v>
       </c>
       <c r="I24">
-        <v>5.357754772787359</v>
+        <v>1.524728781897011</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01707308479963388</v>
+        <v>0.003897082456209233</v>
       </c>
       <c r="D25">
-        <v>0.1569043820991425</v>
+        <v>0.03968333960929726</v>
       </c>
       <c r="E25">
-        <v>2.124888449559165</v>
+        <v>0.5170591309376391</v>
       </c>
       <c r="F25">
-        <v>5.369427896265279</v>
+        <v>1.68922753228091</v>
       </c>
       <c r="G25">
-        <v>6.310827663585258</v>
+        <v>1.813714311031788</v>
       </c>
       <c r="H25">
-        <v>2.993516312572865</v>
+        <v>1.13220129104684</v>
       </c>
       <c r="I25">
-        <v>4.164552600522057</v>
+        <v>1.299310391377276</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_156/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_156/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.003254057381738562</v>
+        <v>0.01344450914392681</v>
       </c>
       <c r="D2">
-        <v>0.03349782192563566</v>
+        <v>0.1254286652804382</v>
       </c>
       <c r="E2">
-        <v>0.4333214853876086</v>
+        <v>1.693217759814715</v>
       </c>
       <c r="F2">
-        <v>1.479172793580574</v>
+        <v>4.348100523675527</v>
       </c>
       <c r="G2">
-        <v>1.560190433613002</v>
+        <v>5.101538936911936</v>
       </c>
       <c r="H2">
-        <v>1.022540459300615</v>
+        <v>2.431071999011465</v>
       </c>
       <c r="I2">
-        <v>1.1362179686612</v>
+        <v>3.371152751250051</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.002821308720768911</v>
+        <v>0.01123029046465263</v>
       </c>
       <c r="D3">
-        <v>0.02934618752100704</v>
+        <v>0.1057552671968196</v>
       </c>
       <c r="E3">
-        <v>0.3770546871430156</v>
+        <v>1.424824778722225</v>
       </c>
       <c r="F3">
-        <v>1.338957110356432</v>
+        <v>3.699289516883596</v>
       </c>
       <c r="G3">
-        <v>1.390408734690794</v>
+        <v>4.333300474691924</v>
       </c>
       <c r="H3">
-        <v>0.9498434618274416</v>
+        <v>2.074839541658093</v>
       </c>
       <c r="I3">
-        <v>1.027328598235428</v>
+        <v>2.86731387061171</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.002556772847700728</v>
+        <v>0.009954469254768838</v>
       </c>
       <c r="D4">
-        <v>0.02681457152093714</v>
+        <v>0.09425576729508123</v>
       </c>
       <c r="E4">
-        <v>0.3427093422305205</v>
+        <v>1.268390838363061</v>
       </c>
       <c r="F4">
-        <v>1.25385654906384</v>
+        <v>3.316475252101299</v>
       </c>
       <c r="G4">
-        <v>1.287088664196489</v>
+        <v>3.879922528113013</v>
       </c>
       <c r="H4">
-        <v>0.9059721192086272</v>
+        <v>1.865111599200958</v>
       </c>
       <c r="I4">
-        <v>0.9612294625744511</v>
+        <v>2.570096048374936</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.002449222314204746</v>
+        <v>0.009451301082854968</v>
       </c>
       <c r="D5">
-        <v>0.02578698926784995</v>
+        <v>0.08968728018902539</v>
       </c>
       <c r="E5">
-        <v>0.3287593870395824</v>
+        <v>1.206328173410441</v>
       </c>
       <c r="F5">
-        <v>1.219418417453852</v>
+        <v>3.163683450695373</v>
       </c>
       <c r="G5">
-        <v>1.245207559488222</v>
+        <v>3.698931776873223</v>
       </c>
       <c r="H5">
-        <v>0.8882818619924819</v>
+        <v>1.781510220856774</v>
       </c>
       <c r="I5">
-        <v>0.9344778148814612</v>
+        <v>2.451479681984765</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.002431377428983694</v>
+        <v>0.009368651490476054</v>
       </c>
       <c r="D6">
-        <v>0.02561659642820757</v>
+        <v>0.08893506493558334</v>
       </c>
       <c r="E6">
-        <v>0.32644564704799</v>
+        <v>1.196113824896813</v>
       </c>
       <c r="F6">
-        <v>1.213714304211692</v>
+        <v>3.138487890714089</v>
       </c>
       <c r="G6">
-        <v>1.23826638392859</v>
+        <v>3.669083794278095</v>
       </c>
       <c r="H6">
-        <v>0.885355608407167</v>
+        <v>1.767730494983738</v>
       </c>
       <c r="I6">
-        <v>0.930046662266534</v>
+        <v>2.431920302332884</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.002555321430154578</v>
+        <v>0.009947620647242417</v>
       </c>
       <c r="D7">
-        <v>0.02680069713186128</v>
+        <v>0.09419371221225958</v>
       </c>
       <c r="E7">
-        <v>0.3425210282276652</v>
+        <v>1.26754750792098</v>
       </c>
       <c r="F7">
-        <v>1.25339113956133</v>
+        <v>3.314402503187523</v>
       </c>
       <c r="G7">
-        <v>1.286522952935513</v>
+        <v>3.877467391839275</v>
       </c>
       <c r="H7">
-        <v>0.9057327884428616</v>
+        <v>1.86397705045772</v>
       </c>
       <c r="I7">
-        <v>0.9608679430434961</v>
+        <v>2.568486875002108</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.003104574512214242</v>
+        <v>0.01266077503944629</v>
       </c>
       <c r="D8">
-        <v>0.03206250382659448</v>
+        <v>0.118506116436663</v>
       </c>
       <c r="E8">
-        <v>0.4138756201795957</v>
+        <v>1.598661873572794</v>
       </c>
       <c r="F8">
-        <v>1.430615228876633</v>
+        <v>4.120696658236369</v>
       </c>
       <c r="G8">
-        <v>1.50145106635506</v>
+        <v>4.832290491767253</v>
       </c>
       <c r="H8">
-        <v>0.997312915528255</v>
+        <v>2.306111781906168</v>
       </c>
       <c r="I8">
-        <v>1.098511222843172</v>
+        <v>3.194545657294583</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.004193089834402031</v>
+        <v>0.01890404081590447</v>
       </c>
       <c r="D9">
-        <v>0.04253537497446302</v>
+        <v>0.1724351600641683</v>
       </c>
       <c r="E9">
-        <v>0.5556417919495686</v>
+        <v>2.339041732980647</v>
       </c>
       <c r="F9">
-        <v>1.786433726092952</v>
+        <v>5.865531242081914</v>
       </c>
       <c r="G9">
-        <v>1.930770471932931</v>
+        <v>6.898352549842173</v>
       </c>
       <c r="H9">
-        <v>1.183194529484183</v>
+        <v>3.267369944928021</v>
       </c>
       <c r="I9">
-        <v>1.374773752377479</v>
+        <v>4.550075726719001</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.005002855156178043</v>
+        <v>0.02457415429287124</v>
       </c>
       <c r="D10">
-        <v>0.05034663962426578</v>
+        <v>0.2190894863238384</v>
       </c>
       <c r="E10">
-        <v>0.6612548373531837</v>
+        <v>2.987780375960625</v>
       </c>
       <c r="F10">
-        <v>2.053503134825348</v>
+        <v>7.323433708549715</v>
       </c>
       <c r="G10">
-        <v>2.25169995454138</v>
+        <v>8.625905861440629</v>
       </c>
       <c r="H10">
-        <v>1.323928293468384</v>
+        <v>4.074327958866775</v>
       </c>
       <c r="I10">
-        <v>1.582080857590341</v>
+        <v>5.683575033474398</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.005374107612826862</v>
+        <v>0.02758447439111578</v>
       </c>
       <c r="D11">
-        <v>0.05393065389280594</v>
+        <v>0.2430042267570371</v>
       </c>
       <c r="E11">
-        <v>0.7096928564080969</v>
+        <v>3.323983532946485</v>
       </c>
       <c r="F11">
-        <v>2.176361795961952</v>
+        <v>8.051302092687507</v>
       </c>
       <c r="G11">
-        <v>2.399058331659944</v>
+        <v>9.489177697137507</v>
       </c>
       <c r="H11">
-        <v>1.388930860006212</v>
+        <v>4.478348990258439</v>
       </c>
       <c r="I11">
-        <v>1.677437594168651</v>
+        <v>6.249823015249603</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.005515163530720457</v>
+        <v>0.02881357053119871</v>
       </c>
       <c r="D12">
-        <v>0.05529264728673411</v>
+        <v>0.2526037403100361</v>
       </c>
       <c r="E12">
-        <v>0.7280979333847029</v>
+        <v>3.4597379411763</v>
       </c>
       <c r="F12">
-        <v>2.223092649497147</v>
+        <v>8.339661184291458</v>
       </c>
       <c r="G12">
-        <v>2.455068630089329</v>
+        <v>9.831358644522481</v>
       </c>
       <c r="H12">
-        <v>1.413692841925524</v>
+        <v>4.638612554044244</v>
       </c>
       <c r="I12">
-        <v>1.713706417683738</v>
+        <v>6.474220800674459</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.005484762777026475</v>
+        <v>0.02854430894561233</v>
       </c>
       <c r="D13">
-        <v>0.05499909744283116</v>
+        <v>0.2505088094289789</v>
       </c>
       <c r="E13">
-        <v>0.7241311873571874</v>
+        <v>3.430070558411686</v>
       </c>
       <c r="F13">
-        <v>2.213018952958919</v>
+        <v>8.276919964998228</v>
       </c>
       <c r="G13">
-        <v>2.442996318239921</v>
+        <v>9.756897547954281</v>
       </c>
       <c r="H13">
-        <v>1.408353279212236</v>
+        <v>4.603732650145389</v>
       </c>
       <c r="I13">
-        <v>1.705888062043613</v>
+        <v>6.425392919624215</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.005385702609842724</v>
+        <v>0.02768359986343683</v>
       </c>
       <c r="D14">
-        <v>0.05404260727604537</v>
+        <v>0.2437819227637164</v>
       </c>
       <c r="E14">
-        <v>0.7112057626939219</v>
+        <v>3.334963746942051</v>
       </c>
       <c r="F14">
-        <v>2.180202163862305</v>
+        <v>8.074745212037669</v>
       </c>
       <c r="G14">
-        <v>2.403662073796909</v>
+        <v>9.516992421592079</v>
       </c>
       <c r="H14">
-        <v>1.390965065424609</v>
+        <v>4.491373880327785</v>
       </c>
       <c r="I14">
-        <v>1.680418212570913</v>
+        <v>6.268064715396264</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.005325088373179909</v>
+        <v>0.02716904330446113</v>
       </c>
       <c r="D15">
-        <v>0.05345736725728045</v>
+        <v>0.2397382078955417</v>
       </c>
       <c r="E15">
-        <v>0.7032969061931595</v>
+        <v>3.277904452826874</v>
       </c>
       <c r="F15">
-        <v>2.160128194102469</v>
+        <v>7.952693072074766</v>
       </c>
       <c r="G15">
-        <v>2.379596291095424</v>
+        <v>9.372187922502576</v>
       </c>
       <c r="H15">
-        <v>1.38033358776039</v>
+        <v>4.423570570468655</v>
       </c>
       <c r="I15">
-        <v>1.664838182651778</v>
+        <v>6.173095588598159</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.004978655728585579</v>
+        <v>0.02438812888093622</v>
       </c>
       <c r="D16">
-        <v>0.05011306619309153</v>
+        <v>0.2175925717777432</v>
       </c>
       <c r="E16">
-        <v>0.6580977365154581</v>
+        <v>2.96682520424001</v>
       </c>
       <c r="F16">
-        <v>2.045502423609747</v>
+        <v>7.27742839637034</v>
       </c>
       <c r="G16">
-        <v>2.242098281615256</v>
+        <v>8.571362234403011</v>
       </c>
       <c r="H16">
-        <v>1.319700468231076</v>
+        <v>4.048816500114924</v>
       </c>
       <c r="I16">
-        <v>1.575870917717282</v>
+        <v>5.647792979421752</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.004766908780645451</v>
+        <v>0.02280809076805568</v>
       </c>
       <c r="D17">
-        <v>0.04806957234971776</v>
+        <v>0.2047872617696527</v>
       </c>
       <c r="E17">
-        <v>0.6304746509790249</v>
+        <v>2.787966074237275</v>
       </c>
       <c r="F17">
-        <v>1.975540707466763</v>
+        <v>6.881761910535118</v>
       </c>
       <c r="G17">
-        <v>2.158106315897214</v>
+        <v>8.102350197685439</v>
       </c>
       <c r="H17">
-        <v>1.282759550197568</v>
+        <v>3.829530733515696</v>
       </c>
       <c r="I17">
-        <v>1.521567415056438</v>
+        <v>5.340088756731404</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.004645385760881027</v>
+        <v>0.02193769509101173</v>
       </c>
       <c r="D18">
-        <v>0.04689706723206655</v>
+        <v>0.1976630057652926</v>
       </c>
       <c r="E18">
-        <v>0.6146233109359969</v>
+        <v>2.688757287295317</v>
       </c>
       <c r="F18">
-        <v>1.935428655982946</v>
+        <v>6.660004570826743</v>
       </c>
       <c r="G18">
-        <v>2.109924162734671</v>
+        <v>7.839549473124066</v>
       </c>
       <c r="H18">
-        <v>1.261604197832753</v>
+        <v>3.706727278736764</v>
       </c>
       <c r="I18">
-        <v>1.490431971508826</v>
+        <v>5.167660082862824</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.004604284556375404</v>
+        <v>0.02164895713471893</v>
       </c>
       <c r="D19">
-        <v>0.04650055608500736</v>
+        <v>0.1952885450996433</v>
       </c>
       <c r="E19">
-        <v>0.6092624483873266</v>
+        <v>2.655737564076219</v>
       </c>
       <c r="F19">
-        <v>1.921869092488407</v>
+        <v>6.585838035291488</v>
       </c>
       <c r="G19">
-        <v>2.093632089949608</v>
+        <v>7.751665541672594</v>
       </c>
       <c r="H19">
-        <v>1.254457003917366</v>
+        <v>3.6656718168407</v>
       </c>
       <c r="I19">
-        <v>1.479906719779933</v>
+        <v>5.10999600171678</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.004789421446250941</v>
+        <v>0.02297215757364413</v>
       </c>
       <c r="D20">
-        <v>0.04828680705054467</v>
+        <v>0.2061245486106316</v>
       </c>
       <c r="E20">
-        <v>0.6334113316135301</v>
+        <v>2.806611874208343</v>
       </c>
       <c r="F20">
-        <v>1.98297492231211</v>
+        <v>6.923258570026235</v>
       </c>
       <c r="G20">
-        <v>2.167034087632203</v>
+        <v>8.151532090194053</v>
       </c>
       <c r="H20">
-        <v>1.286682402595602</v>
+        <v>3.852518429037161</v>
       </c>
       <c r="I20">
-        <v>1.527337864055909</v>
+        <v>5.372356996794736</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.005414785755259999</v>
+        <v>0.02793370429824193</v>
       </c>
       <c r="D21">
-        <v>0.05432341797123286</v>
+        <v>0.2457413945050604</v>
       </c>
       <c r="E21">
-        <v>0.7150005244285893</v>
+        <v>3.362643092768323</v>
       </c>
       <c r="F21">
-        <v>2.189835550321789</v>
+        <v>8.133748233021834</v>
       </c>
       <c r="G21">
-        <v>2.415209724981651</v>
+        <v>9.587001257993734</v>
       </c>
       <c r="H21">
-        <v>1.396068371685772</v>
+        <v>4.524159040858819</v>
       </c>
       <c r="I21">
-        <v>1.687894936110695</v>
+        <v>6.313977642729782</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.005826268009457181</v>
+        <v>0.03172098124995415</v>
       </c>
       <c r="D22">
-        <v>0.05829689329300436</v>
+        <v>0.2749400698695297</v>
       </c>
       <c r="E22">
-        <v>0.7686918527812168</v>
+        <v>3.77756972797593</v>
       </c>
       <c r="F22">
-        <v>2.326242151678684</v>
+        <v>9.002007544875909</v>
       </c>
       <c r="G22">
-        <v>2.578630384526036</v>
+        <v>10.6177675444759</v>
       </c>
       <c r="H22">
-        <v>1.468417554920734</v>
+        <v>5.007161874707379</v>
       </c>
       <c r="I22">
-        <v>1.793760671793962</v>
+        <v>6.989804967162257</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.005606379835924713</v>
+        <v>0.02963658427280791</v>
       </c>
       <c r="D23">
-        <v>0.056173459059778</v>
+        <v>0.2589791695749426</v>
       </c>
       <c r="E23">
-        <v>0.740000080994875</v>
+        <v>3.550169455393103</v>
       </c>
       <c r="F23">
-        <v>2.253325073928437</v>
+        <v>8.529949159981157</v>
       </c>
       <c r="G23">
-        <v>2.49129354428328</v>
+        <v>10.05722464577826</v>
       </c>
       <c r="H23">
-        <v>1.429722897787428</v>
+        <v>4.744432921784437</v>
       </c>
       <c r="I23">
-        <v>1.737170097874895</v>
+        <v>6.622322638952625</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.004779242810620588</v>
+        <v>0.02289786647404668</v>
       </c>
       <c r="D24">
-        <v>0.04818858802501325</v>
+        <v>0.205519231521663</v>
       </c>
       <c r="E24">
-        <v>0.6320835667388707</v>
+        <v>2.798171004204519</v>
       </c>
       <c r="F24">
-        <v>1.979613572332795</v>
+        <v>6.904480359725596</v>
       </c>
       <c r="G24">
-        <v>2.162997512968275</v>
+        <v>8.129275934081079</v>
       </c>
       <c r="H24">
-        <v>1.284908624568857</v>
+        <v>3.842115650604512</v>
       </c>
       <c r="I24">
-        <v>1.524728781897011</v>
+        <v>5.357754772787416</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.003897082456209233</v>
+        <v>0.01707308479974046</v>
       </c>
       <c r="D25">
-        <v>0.03968333960929726</v>
+        <v>0.1569043820991709</v>
       </c>
       <c r="E25">
-        <v>0.5170591309376391</v>
+        <v>2.124888449559165</v>
       </c>
       <c r="F25">
-        <v>1.68922753228091</v>
+        <v>5.36942789626525</v>
       </c>
       <c r="G25">
-        <v>1.813714311031788</v>
+        <v>6.310827663585201</v>
       </c>
       <c r="H25">
-        <v>1.13220129104684</v>
+        <v>2.993516312572865</v>
       </c>
       <c r="I25">
-        <v>1.299310391377276</v>
+        <v>4.164552600522029</v>
       </c>
       <c r="J25">
         <v>0</v>
